--- a/programer-审问室.xlsx
+++ b/programer-审问室.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="0" windowWidth="25600" windowHeight="14040" tabRatio="500"/>
+    <workbookView xWindow="1605" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -271,8 +271,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -298,6 +298,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -415,6 +416,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -433,12 +437,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -766,29 +767,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="6" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -816,7 +817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="52">
+    <row r="3" spans="1:8" ht="48">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -830,7 +831,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="109" customHeight="1">
+    <row r="4" spans="1:8" ht="47.25" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -846,7 +847,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="37" customHeight="1">
+    <row r="5" spans="1:8" ht="34.5" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -860,7 +861,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="26">
+    <row r="6" spans="1:8" ht="24">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -876,7 +877,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="52">
+    <row r="7" spans="1:8" ht="48">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -892,7 +893,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="130">
+    <row r="8" spans="1:8" ht="120">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -908,7 +909,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="52">
+    <row r="9" spans="1:8" ht="36">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>22</v>
@@ -926,7 +927,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="43" customHeight="1">
+    <row r="10" spans="1:8" ht="42.95" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>24</v>
@@ -940,7 +941,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="43" customHeight="1">
+    <row r="11" spans="1:8" ht="42.95" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>27</v>
@@ -954,7 +955,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="43" customHeight="1">
+    <row r="12" spans="1:8" ht="42.95" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>27</v>
@@ -968,7 +969,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="59" customHeight="1">
+    <row r="13" spans="1:8" ht="59.1" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>27</v>
@@ -982,7 +983,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="26">
+    <row r="14" spans="1:8" ht="24">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>27</v>
@@ -998,7 +999,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="39">
+    <row r="15" spans="1:8" ht="36">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -1014,7 +1015,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="39">
+    <row r="16" spans="1:8" ht="24">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>27</v>
@@ -1030,7 +1031,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="39">
+    <row r="17" spans="1:8" ht="36">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>36</v>
@@ -1046,7 +1047,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="39">
+    <row r="18" spans="1:8" ht="36">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>27</v>
@@ -1062,7 +1063,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="70" customHeight="1">
+    <row r="19" spans="1:8" ht="69.95" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>42</v>
@@ -1078,7 +1079,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="65">
+    <row r="20" spans="1:8" ht="60">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>27</v>
@@ -1096,7 +1097,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="26">
+    <row r="21" spans="1:8" ht="24">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>27</v>
@@ -1129,46 +1130,46 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" ht="27">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" ht="78">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="72">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>27</v>
@@ -1202,7 +1203,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="26">
+    <row r="28" spans="1:8" ht="24">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>42</v>
@@ -1218,19 +1219,19 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="27">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11" t="s">
+    <row r="29" spans="1:8" ht="24">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3"/>
@@ -1545,6 +1546,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
